--- a/spec/ASW/Veh/Driver/APP/APP_DD1/APP_DD1.xlsx
+++ b/spec/ASW/Veh/Driver/APP/APP_DD1/APP_DD1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\Unitfolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Veh\Driver\APP\APP_DD1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E728A-8F39-4BDA-97A9-68E28248061F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FC1A68-9128-48D8-8D2F-378AF8FDDB2E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -71,6 +71,111 @@
   <si>
     <t>InitialValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP_uRaw1unLim</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>mv</t>
+  </si>
+  <si>
+    <t>Acceleration pedal sensor 1 unlimited raw value</t>
+  </si>
+  <si>
+    <t>DSM_bAPP1SigPath</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>status of FId_APP1SigPath</t>
+  </si>
+  <si>
+    <t>APP_uRaw1</t>
+  </si>
+  <si>
+    <t>Acceleration Pedal Position D</t>
+  </si>
+  <si>
+    <t>APP_bAPP1FinalDef</t>
+  </si>
+  <si>
+    <t>Status Sensor 1 of the acceleration pedal finally defect</t>
+  </si>
+  <si>
+    <t>APP_bAPP1ProvDef</t>
+  </si>
+  <si>
+    <t>Status Sensor 1 of the acceleration pedal temporary defect</t>
+  </si>
+  <si>
+    <t>APP_bSRCHigh1Deb_DSM</t>
+  </si>
+  <si>
+    <t>Status debounced SRC-High error Sensor 1</t>
+  </si>
+  <si>
+    <t>APP_bSRCLow1Deb_DSM</t>
+  </si>
+  <si>
+    <t>Status debounced SRC-Low error Sensor 1</t>
+  </si>
+  <si>
+    <t>APP_bSRCHigh1</t>
+  </si>
+  <si>
+    <t>Status temporary SRC-High error Sensor 1</t>
+  </si>
+  <si>
+    <t>APP_bSRCLow1</t>
+  </si>
+  <si>
+    <t>Status temporary SRC-Low error Sensor 1</t>
+  </si>
+  <si>
+    <t>APP_uRaw1SRCHigh_C</t>
+  </si>
+  <si>
+    <t>voltage upper threshold of channel 1</t>
+  </si>
+  <si>
+    <t>APP_uRaw1SRCLow_C</t>
+  </si>
+  <si>
+    <t>voltage lower threshold of channel 1</t>
+  </si>
+  <si>
+    <t>APP_tiSRCHighDefDeb_C</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>debounce time</t>
+  </si>
+  <si>
+    <t>APP_tiSRCHighOKDeb_C</t>
+  </si>
+  <si>
+    <t>APP_tiSRCLowDefDeb_C</t>
+  </si>
+  <si>
+    <t>APP_tiSRCLowOKDeb_C</t>
+  </si>
+  <si>
+    <t>APP_uRaw1Def_C</t>
+  </si>
+  <si>
+    <t>Substitute value for sensor 1 defect</t>
+  </si>
+  <si>
+    <t>Volt_mV</t>
+  </si>
+  <si>
+    <t>Debncd_ms</t>
   </si>
 </sst>
 </file>
@@ -458,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,6 +606,55 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,10 +664,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A2" sqref="A2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,6 +708,124 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,10 +835,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A2" sqref="A2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,6 +878,52 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -617,7 +935,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,17 +975,187 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6">
+        <v>500</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6">
+        <v>100</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6">
+        <v>100</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6">
+        <v>100</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E11" s="6"/>

--- a/spec/ASW/Veh/Driver/APP/APP_DD1/APP_DD1.xlsx
+++ b/spec/ASW/Veh/Driver/APP/APP_DD1/APP_DD1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Veh\Driver\APP\APP_DD1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FC1A68-9128-48D8-8D2F-378AF8FDDB2E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A22432-A7F9-40E1-AE15-EA00C219AF92}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -172,17 +172,36 @@
     <t>Substitute value for sensor 1 defect</t>
   </si>
   <si>
-    <t>Volt_mV</t>
-  </si>
-  <si>
     <t>Debncd_ms</t>
+  </si>
+  <si>
+    <t>Volt_mV1</t>
+  </si>
+  <si>
+    <t>FM_APP1_SRC_FG_CA</t>
+  </si>
+  <si>
+    <t>[1 15]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zeros(1,15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fault_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fault Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +235,12 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -262,7 +287,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,6 +306,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -565,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -626,7 +654,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>14</v>
@@ -728,7 +756,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
@@ -934,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -995,7 +1023,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>33</v>
@@ -1021,7 +1049,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>35</v>
@@ -1047,7 +1075,7 @@
         <v>37</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>38</v>
@@ -1073,7 +1101,7 @@
         <v>37</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>38</v>
@@ -1099,7 +1127,7 @@
         <v>37</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>38</v>
@@ -1125,7 +1153,7 @@
         <v>37</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>38</v>
@@ -1151,10 +1179,33 @@
         <v>13</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>65535</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
